--- a/core/modules/core/test/smoketest/services.xlsx
+++ b/core/modules/core/test/smoketest/services.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="973"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="ReportHeader" vbProcedure="false">Sheet1!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" name="ServiceDetails" vbProcedure="false">Sheet1!$A$9:$G$9</definedName>
-    <definedName function="false" hidden="false" name="ServiceHeader" vbProcedure="false">Sheet1!$A$7:$G$8</definedName>
-    <definedName function="false" hidden="false" name="ServiceTotals" vbProcedure="false">Sheet1!$A$10:$G$10</definedName>
+    <definedName name="ReportHeader">Sheet1!$A$1:$G$6</definedName>
+    <definedName name="ServiceDetails">Sheet1!$A$9:$G$9</definedName>
+    <definedName name="ServiceHeader">Sheet1!$A$7:$G$8</definedName>
+    <definedName name="ServiceTotals">Sheet1!$A$10:$G$10</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test of formulas</t>
   </si>
@@ -66,9 +65,6 @@
   </si>
   <si>
     <t>${ServiceName}</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>${ClientName}</t>
@@ -96,13 +92,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY\ HH:MM:SS"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,22 +103,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -145,7 +123,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -173,144 +151,83 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -369,34 +286,322 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="38.85546875"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="18.7109375"/>
+    <col min="5" max="5" width="13"/>
+    <col min="6" max="6" width="12.140625"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -411,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -420,7 +625,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -433,7 +638,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -456,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="6.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="6.95" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -465,7 +670,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -476,51 +681,47 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="20" t="n">
-        <f aca="false">SUM(E9:E9)</f>
+      <c r="E10" s="20">
+        <f>SUM(E9:E9)</f>
         <v>0</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="20" t="n">
-        <f aca="false">SUM(G9:G9)</f>
+      <c r="G10" s="20">
+        <f>SUM(G9:G9)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
